--- a/src/main/resources/menRevolveJeans.xlsx
+++ b/src/main/resources/menRevolveJeans.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="168">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="201">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,7 +32,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>RESULTS FOR: "Jeans"</t>
+    <t>men_revolve_jeans_1</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/DIEF-MJ9_V1.jpg</t>
@@ -50,6 +50,9 @@
     <t>https://www.revolve.com/diesel-jeans-in-denim/dp/DIEF-MJ9/?d=Mens&amp;page=1&amp;lc=1&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;fromGrs=true&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>men_revolve_jeans_2</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ2_V1.jpg</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t>https://www.revolve.com/agolde-low-slung-baggy-jean-in-paradox/dp/AGOF-MJ2/?d=Mens&amp;page=1&amp;lc=2&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;fromGrs=true&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>men_revolve_jeans_3</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/JNER-MJ3_V1.jpg</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t>https://www.revolve.com/jeanerica-state-jeans-in-tom-mid-blue-wash/dp/JNER-MJ3/?d=Mens&amp;page=1&amp;lc=3&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;fromGrs=true&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>men_revolve_jeans_4</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ56_V1.jpg</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
     <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-garage-desert-sage/dp/FAMF-MJ56/?d=Mens&amp;page=1&amp;lc=4&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;fromGrs=true&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>men_revolve_jeans_5</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/JLON-MJ7_V1.jpg</t>
   </si>
   <si>
@@ -104,205 +116,337 @@
     <t>Extreme Baggy Carpenter</t>
   </si>
   <si>
+    <t>CA$ 389.88</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/jaded-london-extreme-baggy-carpenter-in-light-wash/dp/JLON-MJ7/?d=Mens&amp;page=1&amp;lc=5&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_6</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MO52_V1.jpg</t>
+  </si>
+  <si>
+    <t>Nudie Jeans</t>
+  </si>
+  <si>
+    <t>Robby Denim Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 381.28</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-robby-denim-jacket-in-blue/dp/NUDI-MO52/?d=Mens&amp;page=1&amp;lc=6&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_7</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MJ375_V1.jpg</t>
+  </si>
+  <si>
+    <t>Gritty Jackson</t>
+  </si>
+  <si>
+    <t>CA$ 278.01</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-gritty-jackson-in-summer-clouds/dp/NUDI-MJ375/?d=Mens&amp;page=1&amp;lc=7&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_8</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMER-MJ1_V1.jpg</t>
+  </si>
+  <si>
+    <t>American Vintage</t>
+  </si>
+  <si>
+    <t>Joybird Jeans</t>
+  </si>
+  <si>
+    <t>CA$ 413.05</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/american-vintage-joybird-jeans-in-dirty/dp/AMER-MJ1/?d=Mens&amp;page=1&amp;lc=8&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_9</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MJ44_V1.jpg</t>
+  </si>
+  <si>
+    <t>Ksubi</t>
+  </si>
+  <si>
+    <t>Van Winkle</t>
+  </si>
+  <si>
+    <t>CA$ 187.46</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/ksubi-van-winkle-in-black-dynamite/dp/KSUF-MJ44/?d=Mens&amp;page=1&amp;lc=9&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_10</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-MJ18_V1.jpg</t>
+  </si>
+  <si>
+    <t>LEVI'S</t>
+  </si>
+  <si>
+    <t>501 93 Straight Jean</t>
+  </si>
+  <si>
+    <t>CA$ 950.01</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/levis-501-93-straight-jean-in-if-only/dp/LEIV-MJ18/?d=Mens&amp;page=1&amp;lc=10&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_11</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-MJ395_V1.jpg</t>
+  </si>
+  <si>
+    <t>Citizens of Humanity</t>
+  </si>
+  <si>
+    <t>Hayden Baggy</t>
+  </si>
+  <si>
+    <t>CA$ 445.58</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/citizens-of-humanity-hayden-baggy-in-joji/dp/CITI-MJ395/?d=Mens&amp;page=1&amp;lc=11&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_12</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/JOHF-MJ56_V1.jpg</t>
+  </si>
+  <si>
+    <t>JOHN ELLIOTT</t>
+  </si>
+  <si>
+    <t>Caribou Bootcut Hornet</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/john-elliott-caribou-bootcut-hornet-in-hornet/dp/JOHF-MJ56/?d=Mens&amp;page=1&amp;lc=12&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_13</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MO54_V1.jpg</t>
+  </si>
+  <si>
+    <t>Howie Waxed Chore Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 284.37</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-howie-waxed-chore-jacket-in-brown/dp/NUDI-MO54/?d=Mens&amp;page=1&amp;lc=13&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_14</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/JLON-MJ6_V1.jpg</t>
+  </si>
+  <si>
+    <t>Slub Straight Fit Jean</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/jaded-london-slub-straight-fit-jean-in-mid-blue/dp/JLON-MJ6/?d=Mens&amp;page=1&amp;lc=14&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_15</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NEUW-MJ60_V1.jpg</t>
+  </si>
+  <si>
+    <t>NEUW</t>
+  </si>
+  <si>
+    <t>Lou Slim Jeans</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/neuw-lou-slim-jeans-in-twill/dp/NEUW-MJ60/?d=Mens&amp;page=1&amp;lc=15&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_16</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ1_V1.jpg</t>
+  </si>
+  <si>
+    <t>Low Slung Baggy Pant</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-low-slung-baggy-pant-in-libertine/dp/AGOF-MJ1/?d=Mens&amp;page=1&amp;lc=16&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_17</t>
+  </si>
+  <si>
+    <t>CA$ 362.21</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/neuw-lou-slim-jeans-in-twill/dp/NEUW-MJ60/?d=Mens&amp;page=1&amp;lc=17&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_18</t>
+  </si>
+  <si>
+    <t>CA$ 309.79</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-low-slung-baggy-pant-in-libertine/dp/AGOF-MJ1/?d=Mens&amp;page=1&amp;lc=18&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ64_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 151.70</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-smoke-beige/dp/FAMF-MJ64/?d=Mens&amp;page=1&amp;lc=19&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MJ1_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 121.66</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/ksubi-van-winkle-in-black-rebel/dp/KSUF-MJ1/?d=Mens&amp;page=1&amp;lc=20&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-MJ15_V1.jpg</t>
+  </si>
+  <si>
+    <t>501 Original Jean</t>
+  </si>
+  <si>
+    <t>CA$ 204.94</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/levis-501-original-jean-in-motion-sickness-gd/dp/LEIV-MJ15/?d=Mens&amp;page=1&amp;lc=21&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS246_V1.jpg</t>
+  </si>
+  <si>
+    <t>Leif Mud Stripe T-Shirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-leif-mud-stripe-tshirt-in-multi/dp/NUDI-MS246/?d=Mens&amp;page=1&amp;lc=22&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ROLS-MJ51_V1.jpg</t>
+  </si>
+  <si>
+    <t>ROLLA'S</t>
+  </si>
+  <si>
+    <t>Relaxo Comfort Jeans</t>
+  </si>
+  <si>
+    <t>CA$ 288.40</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/rollas-relaxo-comfort-jeans-in-bleached-indigo/dp/ROLS-MJ51/?d=Mens&amp;page=1&amp;lc=23&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ7_V1.jpg</t>
+  </si>
+  <si>
+    <t>90's Jean</t>
+  </si>
+  <si>
+    <t>CA$ 323.16</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-90s-jean-in-snapshot/dp/AGOF-MJ7/?d=Mens&amp;page=1&amp;lc=24&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_25</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FNEU-MJ5_V1.jpg</t>
+  </si>
+  <si>
+    <t>FLANEUR</t>
+  </si>
+  <si>
+    <t>Carpenter Straight Jeans</t>
+  </si>
+  <si>
+    <t>CA$ 336.74</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/flaneur-carpenter-straight-jeans-in-brown-denim/dp/FNEU-MJ5/?d=Mens&amp;page=1&amp;lc=25&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS245_V1.jpg</t>
+  </si>
+  <si>
+    <t>Arvid Waves Hawaii Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 341.56</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-arvid-waves-hawaii-shirt-in-ecru/dp/NUDI-MS245/?d=Mens&amp;page=1&amp;lc=26&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/DIEF-MJ8_V1.jpg</t>
+  </si>
+  <si>
+    <t>2010 Denim Jean</t>
+  </si>
+  <si>
     <t>CA$ 190.64</t>
   </si>
   <si>
-    <t>https://www.revolve.com/jaded-london-extreme-baggy-carpenter-in-light-wash/dp/JLON-MJ7/?d=Mens&amp;page=1&amp;lc=5&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/JLON-MJ4_V1.jpg</t>
-  </si>
-  <si>
-    <t>Wing Print Studded Lowrise Colossus Jeans</t>
-  </si>
-  <si>
-    <t>CA$ 381.28</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/jaded-london-wing-print-studded-lowrise-colossus-jeans-in-blue/dp/JLON-MJ4/?d=Mens&amp;page=1&amp;lc=6&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MJ375_V1.jpg</t>
-  </si>
-  <si>
-    <t>Nudie Jeans</t>
-  </si>
-  <si>
-    <t>Gritty Jackson</t>
-  </si>
-  <si>
-    <t>CA$ 413.05</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-gritty-jackson-in-summer-clouds/dp/NUDI-MJ375/?d=Mens&amp;page=1&amp;lc=7&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MJ44_V1.jpg</t>
-  </si>
-  <si>
-    <t>Ksubi</t>
-  </si>
-  <si>
-    <t>Van Winkle</t>
-  </si>
-  <si>
-    <t>CA$ 950.01</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/ksubi-van-winkle-in-black-dynamite/dp/KSUF-MJ44/?d=Mens&amp;page=1&amp;lc=8&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/JOHF-MJ56_V1.jpg</t>
-  </si>
-  <si>
-    <t>JOHN ELLIOTT</t>
-  </si>
-  <si>
-    <t>Caribou Bootcut Hornet</t>
-  </si>
-  <si>
-    <t>CA$ 187.46</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/john-elliott-caribou-bootcut-hornet-in-hornet/dp/JOHF-MJ56/?d=Mens&amp;page=1&amp;lc=9&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-MJ18_V1.jpg</t>
-  </si>
-  <si>
-    <t>LEVI'S</t>
-  </si>
-  <si>
-    <t>501 93 Straight Jean</t>
-  </si>
-  <si>
-    <t>CA$ 445.58</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-501-93-straight-jean-in-if-only/dp/LEIV-MJ18/?d=Mens&amp;page=1&amp;lc=10&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MO54_V1.jpg</t>
-  </si>
-  <si>
-    <t>Howie Waxed Chore Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-howie-waxed-chore-jacket-in-brown/dp/NUDI-MO54/?d=Mens&amp;page=1&amp;lc=11&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/JLON-MJ6_V1.jpg</t>
-  </si>
-  <si>
-    <t>Slub Straight Fit Jean</t>
-  </si>
-  <si>
-    <t>CA$ 389.88</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/jaded-london-slub-straight-fit-jean-in-mid-blue/dp/JLON-MJ6/?d=Mens&amp;page=1&amp;lc=12&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MO52_V1.jpg</t>
-  </si>
-  <si>
-    <t>Robby Denim Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 362.21</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-robby-denim-jacket-in-blue/dp/NUDI-MO52/?d=Mens&amp;page=1&amp;lc=13&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ64_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 204.94</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-smoke-beige/dp/FAMF-MJ64/?d=Mens&amp;page=1&amp;lc=14&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ROLS-MJ51_V1.jpg</t>
-  </si>
-  <si>
-    <t>ROLLA'S</t>
-  </si>
-  <si>
-    <t>Relaxo Comfort Jeans</t>
-  </si>
-  <si>
-    <t>CA$ 309.79</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/rollas-relaxo-comfort-jeans-in-bleached-indigo/dp/ROLS-MJ51/?d=Mens&amp;page=1&amp;lc=15&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MJ1_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 288.40</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/ksubi-van-winkle-in-black-rebel/dp/KSUF-MJ1/?d=Mens&amp;page=1&amp;lc=16&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS245_V1.jpg</t>
-  </si>
-  <si>
-    <t>Arvid Waves Hawaii Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-arvid-waves-hawaii-shirt-in-ecru/dp/NUDI-MS245/?d=Mens&amp;page=1&amp;lc=17&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ7_V1.jpg</t>
-  </si>
-  <si>
-    <t>90's Jean</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-90s-jean-in-snapshot/dp/AGOF-MJ7/?d=Mens&amp;page=1&amp;lc=18&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FNEU-MJ5_V1.jpg</t>
-  </si>
-  <si>
-    <t>FLANEUR</t>
-  </si>
-  <si>
-    <t>Carpenter Straight Jeans</t>
-  </si>
-  <si>
-    <t>CA$ 323.16</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/flaneur-carpenter-straight-jeans-in-brown-denim/dp/FNEU-MJ5/?d=Mens&amp;page=1&amp;lc=19&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/JLON-MJ5_V1.jpg</t>
-  </si>
-  <si>
-    <t>Colossus Jean</t>
-  </si>
-  <si>
-    <t>CA$ 151.70</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/jaded-london-colossus-jean-in-black/dp/JLON-MJ5/?d=Mens&amp;page=1&amp;lc=20&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/DIEF-MJ8_V1.jpg</t>
-  </si>
-  <si>
-    <t>2010 Denim Jean</t>
-  </si>
-  <si>
-    <t>CA$ 392.55</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/diesel-2010-denim-jean-in-blue/dp/DIEF-MJ8/?d=Mens&amp;page=1&amp;lc=21&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/diesel-2010-denim-jean-in-blue/dp/DIEF-MJ8/?d=Mens&amp;page=1&amp;lc=27&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_28</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ10_V1.jpg</t>
@@ -311,28 +455,40 @@
     <t>Curtis Jean</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-curtis-jean-in-perimeter/dp/AGOF-MJ10/?d=Mens&amp;page=1&amp;lc=22&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-MJ15_V1.jpg</t>
-  </si>
-  <si>
-    <t>501 Original Jean</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-501-original-jean-in-motion-sickness-gd/dp/LEIV-MJ15/?d=Mens&amp;page=1&amp;lc=23&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS241_V1.jpg</t>
-  </si>
-  <si>
-    <t>Gonzo Western Guitar Shirt</t>
+    <t>CA$ 316.14</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-curtis-jean-in-perimeter/dp/AGOF-MJ10/?d=Mens&amp;page=1&amp;lc=28&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_29</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ8_V1.jpg</t>
   </si>
   <si>
     <t>CA$ 317.73</t>
   </si>
   <si>
-    <t>https://www.revolve.com/nudie-jeans-gonzo-western-guitar-shirt-in-black/dp/NUDI-MS241/?d=Mens&amp;page=1&amp;lc=24&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/agolde-90s-jean-in-rain/dp/AGOF-MJ8/?d=Mens&amp;page=1&amp;lc=29&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_30</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MJ20_V1.jpg</t>
+  </si>
+  <si>
+    <t>Chitch Skinny Jean</t>
+  </si>
+  <si>
+    <t>CA$ 271.56</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/ksubi-chitch-skinny-jean-in-pure-dynamite/dp/KSUF-MJ20/?d=Mens&amp;page=1&amp;lc=30&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_31</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/JLON-MJ8_V1.jpg</t>
@@ -341,19 +497,22 @@
     <t>Lazy Willy Denim Jeans</t>
   </si>
   <si>
-    <t>CA$ 121.66</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/jaded-london-lazy-willy-denim-jeans-in-black/dp/JLON-MJ8/?d=Mens&amp;page=1&amp;lc=25&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ1_V1.jpg</t>
-  </si>
-  <si>
-    <t>Low Slung Baggy Pant</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-low-slung-baggy-pant-in-libertine/dp/AGOF-MJ1/?d=Mens&amp;page=1&amp;lc=26&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/jaded-london-lazy-willy-denim-jeans-in-black/dp/JLON-MJ8/?d=Mens&amp;page=1&amp;lc=31&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_32</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NEUW-MJ61_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 597.33</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/neuw-lou-slim-jeans-in-fazer/dp/NEUW-MJ61/?d=Mens&amp;page=1&amp;lc=32&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_33</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MJ378_V1.jpg</t>
@@ -362,79 +521,67 @@
     <t>Tuff Tony Jeans</t>
   </si>
   <si>
-    <t>CA$ 341.56</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-tuff-tony-jeans-in-signs-of-life/dp/NUDI-MJ378/?d=Mens&amp;page=1&amp;lc=27&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS246_V1.jpg</t>
-  </si>
-  <si>
-    <t>Leif Mud Stripe T-Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 284.37</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-leif-mud-stripe-tshirt-in-multi/dp/NUDI-MS246/?d=Mens&amp;page=1&amp;lc=28&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ62_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 319.36</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-bay-leaves/dp/FAMF-MJ62/?d=Mens&amp;page=1&amp;lc=29&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MJ20_V1.jpg</t>
-  </si>
-  <si>
-    <t>Chitch Skinny Jean</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/ksubi-chitch-skinny-jean-in-pure-dynamite/dp/KSUF-MJ20/?d=Mens&amp;page=1&amp;lc=30&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NEUW-MJ60_V1.jpg</t>
-  </si>
-  <si>
-    <t>NEUW</t>
-  </si>
-  <si>
-    <t>Lou Slim Jeans</t>
-  </si>
-  <si>
-    <t>CA$ 278.01</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/neuw-lou-slim-jeans-in-twill/dp/NEUW-MJ60/?d=Mens&amp;page=1&amp;lc=31&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-MJ395_V1.jpg</t>
-  </si>
-  <si>
-    <t>Citizens of Humanity</t>
-  </si>
-  <si>
-    <t>Hayden Baggy</t>
-  </si>
-  <si>
     <t>CA$ 309.58</t>
   </si>
   <si>
-    <t>https://www.revolve.com/citizens-of-humanity-hayden-baggy-in-joji/dp/CITI-MJ395/?d=Mens&amp;page=1&amp;lc=32&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MP21_V1.jpg</t>
-  </si>
-  <si>
-    <t>Tuff Tony Hickory Pants</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-tuff-tony-hickory-pants-in-blue-off-white/dp/NUDI-MP21/?d=Mens&amp;page=1&amp;lc=33&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/nudie-jeans-tuff-tony-jeans-in-signs-of-life/dp/NUDI-MJ378/?d=Mens&amp;page=1&amp;lc=33&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ15_V1.jpg</t>
+  </si>
+  <si>
+    <t>Jagger Skinny Jeans</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/frame-jagger-skinny-jeans-in-black/dp/FAMF-MJ15/?d=Mens&amp;page=1&amp;lc=34&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ12_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 393.99</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-curtis-jean-in-crushed/dp/AGOF-MJ12/?d=Mens&amp;page=1&amp;lc=35&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_36</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SEDF-MJ1_V1.jpg</t>
+  </si>
+  <si>
+    <t>SIEDRES</t>
+  </si>
+  <si>
+    <t>Straight Patchwork Jean</t>
+  </si>
+  <si>
+    <t>CA$ 346.33</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/siedres-straight-patchwork-jean-in-multi/dp/SEDF-MJ1/?d=Mens&amp;page=1&amp;lc=36&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_37</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ61_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 711.71</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-blue-hills/dp/FAMF-MJ61/?d=Mens&amp;page=1&amp;lc=37&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_38</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS243_V1.jpg</t>
@@ -443,52 +590,22 @@
     <t>Roy Gitarr T-Shirt</t>
   </si>
   <si>
-    <t>CA$ 393.99</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-roy-gitarr-tshirt-in-off-white/dp/NUDI-MS243/?d=Mens&amp;page=1&amp;lc=34&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMER-MJ1_V1.jpg</t>
-  </si>
-  <si>
-    <t>American Vintage</t>
-  </si>
-  <si>
-    <t>Joybird Jeans</t>
-  </si>
-  <si>
-    <t>CA$ 346.33</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/american-vintage-joybird-jeans-in-dirty/dp/AMER-MJ1/?d=Mens&amp;page=1&amp;lc=35&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ61_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 271.56</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-blue-hills/dp/FAMF-MJ61/?d=Mens&amp;page=1&amp;lc=36&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ63_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 336.74</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-dobbin/dp/FAMF-MJ63/?d=Mens&amp;page=1&amp;lc=37&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>CA$ 333.62</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-roy-gitarr-tshirt-in-off-white/dp/NUDI-MS243/?d=Mens&amp;page=1&amp;lc=38&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_39</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ9_V1.jpg</t>
   </si>
   <si>
-    <t>CA$ 597.33</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-low-slung-baggy-jean-in-harmony/dp/AGOF-MJ9/?d=Mens&amp;page=1&amp;lc=38&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/agolde-low-slung-baggy-jean-in-harmony/dp/AGOF-MJ9/?d=Mens&amp;page=1&amp;lc=39&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_40</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ3_V1.jpg</t>
@@ -497,25 +614,7 @@
     <t>90s Jean</t>
   </si>
   <si>
-    <t>CA$ 711.71</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-90s-jean-in-tar/dp/AGOF-MJ3/?d=Mens&amp;page=1&amp;lc=39&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MJ1_V1.jpg</t>
-  </si>
-  <si>
-    <t>Pleasures</t>
-  </si>
-  <si>
-    <t>Impact Pinstripe Denim Jean</t>
-  </si>
-  <si>
-    <t>CA$ 316.14</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/pleasures-impact-pinstripe-denim-jean-in-blue/dp/PLSU-MJ1/?d=Mens&amp;page=1&amp;lc=40&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1711854899057&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/agolde-90s-jean-in-tar/dp/AGOF-MJ3/?d=Mens&amp;page=1&amp;lc=40&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -608,782 +707,782 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D13" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>61</v>
-      </c>
       <c r="F13" t="s" s="0">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>124</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>132</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="D36" t="s" s="0">
-        <v>147</v>
-      </c>
       <c r="E36" t="s" s="0">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>152</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>155</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>158</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>162</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menRevolveJeans.xlsx
+++ b/src/main/resources/menRevolveJeans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="204">
   <si>
     <t>Id</t>
   </si>
@@ -281,6 +281,9 @@
     <t>Lou Slim Jeans</t>
   </si>
   <si>
+    <t>CA$ 362.21</t>
+  </si>
+  <si>
     <t>https://www.revolve.com/neuw-lou-slim-jeans-in-twill/dp/NEUW-MJ60/?d=Mens&amp;page=1&amp;lc=15&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
@@ -293,187 +296,292 @@
     <t>Low Slung Baggy Pant</t>
   </si>
   <si>
+    <t>CA$ 309.79</t>
+  </si>
+  <si>
     <t>https://www.revolve.com/agolde-low-slung-baggy-pant-in-libertine/dp/AGOF-MJ1/?d=Mens&amp;page=1&amp;lc=16&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_jeans_17</t>
   </si>
   <si>
-    <t>CA$ 362.21</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/neuw-lou-slim-jeans-in-twill/dp/NEUW-MJ60/?d=Mens&amp;page=1&amp;lc=17&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ64_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 121.66</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-smoke-beige/dp/FAMF-MJ64/?d=Mens&amp;page=1&amp;lc=17&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_jeans_18</t>
   </si>
   <si>
-    <t>CA$ 309.79</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-low-slung-baggy-pant-in-libertine/dp/AGOF-MJ1/?d=Mens&amp;page=1&amp;lc=18&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MJ1_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/ksubi-van-winkle-in-black-rebel/dp/KSUF-MJ1/?d=Mens&amp;page=1&amp;lc=18&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_jeans_19</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ64_V1.jpg</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS246_V1.jpg</t>
+  </si>
+  <si>
+    <t>Leif Mud Stripe T-Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 204.94</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-leif-mud-stripe-tshirt-in-multi/dp/NUDI-MS246/?d=Mens&amp;page=1&amp;lc=19&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_20</t>
   </si>
   <si>
     <t>CA$ 151.70</t>
   </si>
   <si>
-    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-smoke-beige/dp/FAMF-MJ64/?d=Mens&amp;page=1&amp;lc=19&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_20</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MJ1_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 121.66</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/ksubi-van-winkle-in-black-rebel/dp/KSUF-MJ1/?d=Mens&amp;page=1&amp;lc=20&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/agolde-low-slung-baggy-pant-in-libertine/dp/AGOF-MJ1/?d=Mens&amp;page=1&amp;lc=20&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_jeans_21</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ROLS-MJ51_V1.jpg</t>
+  </si>
+  <si>
+    <t>ROLLA'S</t>
+  </si>
+  <si>
+    <t>Relaxo Comfort Jeans</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/rollas-relaxo-comfort-jeans-in-bleached-indigo/dp/ROLS-MJ51/?d=Mens&amp;page=1&amp;lc=21&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_22</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-MJ15_V1.jpg</t>
   </si>
   <si>
     <t>501 Original Jean</t>
   </si>
   <si>
-    <t>CA$ 204.94</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-501-original-jean-in-motion-sickness-gd/dp/LEIV-MJ15/?d=Mens&amp;page=1&amp;lc=21&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_22</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS246_V1.jpg</t>
-  </si>
-  <si>
-    <t>Leif Mud Stripe T-Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-leif-mud-stripe-tshirt-in-multi/dp/NUDI-MS246/?d=Mens&amp;page=1&amp;lc=22&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>CA$ 288.40</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/levis-501-original-jean-in-motion-sickness-gd/dp/LEIV-MJ15/?d=Mens&amp;page=1&amp;lc=22&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_jeans_23</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ROLS-MJ51_V1.jpg</t>
-  </si>
-  <si>
-    <t>ROLLA'S</t>
-  </si>
-  <si>
-    <t>Relaxo Comfort Jeans</t>
-  </si>
-  <si>
-    <t>CA$ 288.40</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/rollas-relaxo-comfort-jeans-in-bleached-indigo/dp/ROLS-MJ51/?d=Mens&amp;page=1&amp;lc=23&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ7_V1.jpg</t>
+  </si>
+  <si>
+    <t>90's Jean</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-90s-jean-in-snapshot/dp/AGOF-MJ7/?d=Mens&amp;page=1&amp;lc=23&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_jeans_24</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ7_V1.jpg</t>
-  </si>
-  <si>
-    <t>90's Jean</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FNEU-MJ5_V1.jpg</t>
+  </si>
+  <si>
+    <t>FLANEUR</t>
+  </si>
+  <si>
+    <t>Carpenter Straight Jeans</t>
   </si>
   <si>
     <t>CA$ 323.16</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-90s-jean-in-snapshot/dp/AGOF-MJ7/?d=Mens&amp;page=1&amp;lc=24&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/flaneur-carpenter-straight-jeans-in-brown-denim/dp/FNEU-MJ5/?d=Mens&amp;page=1&amp;lc=24&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_jeans_25</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FNEU-MJ5_V1.jpg</t>
-  </si>
-  <si>
-    <t>FLANEUR</t>
-  </si>
-  <si>
-    <t>Carpenter Straight Jeans</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS245_V1.jpg</t>
+  </si>
+  <si>
+    <t>Arvid Waves Hawaii Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 190.64</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-arvid-waves-hawaii-shirt-in-ecru/dp/NUDI-MS245/?d=Mens&amp;page=1&amp;lc=25&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/JLON-MJ5_V1.jpg</t>
+  </si>
+  <si>
+    <t>Colossus Jean</t>
+  </si>
+  <si>
+    <t>CA$ 316.14</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/jaded-london-colossus-jean-in-black/dp/JLON-MJ5/?d=Mens&amp;page=1&amp;lc=26&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/DIEF-MJ8_V1.jpg</t>
+  </si>
+  <si>
+    <t>2010 Denim Jean</t>
+  </si>
+  <si>
+    <t>CA$ 317.73</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/diesel-2010-denim-jean-in-blue/dp/DIEF-MJ8/?d=Mens&amp;page=1&amp;lc=27&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_28</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ10_V1.jpg</t>
+  </si>
+  <si>
+    <t>Curtis Jean</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-curtis-jean-in-perimeter/dp/AGOF-MJ10/?d=Mens&amp;page=1&amp;lc=28&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_29</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/JLON-MJ8_V1.jpg</t>
+  </si>
+  <si>
+    <t>Lazy Willy Denim Jeans</t>
+  </si>
+  <si>
+    <t>CA$ 597.33</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/jaded-london-lazy-willy-denim-jeans-in-black/dp/JLON-MJ8/?d=Mens&amp;page=1&amp;lc=29&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_30</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NEUW-MJ61_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 309.58</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/neuw-lou-slim-jeans-in-fazer/dp/NEUW-MJ61/?d=Mens&amp;page=1&amp;lc=30&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MJ378_V1.jpg</t>
+  </si>
+  <si>
+    <t>Tuff Tony Jeans</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-tuff-tony-jeans-in-signs-of-life/dp/NUDI-MJ378/?d=Mens&amp;page=1&amp;lc=31&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_32</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ12_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 393.99</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-curtis-jean-in-crushed/dp/AGOF-MJ12/?d=Mens&amp;page=1&amp;lc=32&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_33</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SEDF-MJ1_V1.jpg</t>
+  </si>
+  <si>
+    <t>SIEDRES</t>
+  </si>
+  <si>
+    <t>Straight Patchwork Jean</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/siedres-straight-patchwork-jean-in-multi/dp/SEDF-MJ1/?d=Mens&amp;page=1&amp;lc=33&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ61_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 341.56</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-blue-hills/dp/FAMF-MJ61/?d=Mens&amp;page=1&amp;lc=34&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS243_V1.jpg</t>
+  </si>
+  <si>
+    <t>Roy Gitarr T-Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 271.56</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-roy-gitarr-tshirt-in-off-white/dp/NUDI-MS243/?d=Mens&amp;page=1&amp;lc=35&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_36</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ9_V1.jpg</t>
   </si>
   <si>
     <t>CA$ 336.74</t>
   </si>
   <si>
-    <t>https://www.revolve.com/flaneur-carpenter-straight-jeans-in-brown-denim/dp/FNEU-MJ5/?d=Mens&amp;page=1&amp;lc=25&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_26</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS245_V1.jpg</t>
-  </si>
-  <si>
-    <t>Arvid Waves Hawaii Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 341.56</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-arvid-waves-hawaii-shirt-in-ecru/dp/NUDI-MS245/?d=Mens&amp;page=1&amp;lc=26&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_27</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/DIEF-MJ8_V1.jpg</t>
-  </si>
-  <si>
-    <t>2010 Denim Jean</t>
-  </si>
-  <si>
-    <t>CA$ 190.64</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/diesel-2010-denim-jean-in-blue/dp/DIEF-MJ8/?d=Mens&amp;page=1&amp;lc=27&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_28</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ10_V1.jpg</t>
-  </si>
-  <si>
-    <t>Curtis Jean</t>
-  </si>
-  <si>
-    <t>CA$ 316.14</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-curtis-jean-in-perimeter/dp/AGOF-MJ10/?d=Mens&amp;page=1&amp;lc=28&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_29</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ8_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 317.73</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-90s-jean-in-rain/dp/AGOF-MJ8/?d=Mens&amp;page=1&amp;lc=29&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_30</t>
+    <t>https://www.revolve.com/agolde-low-slung-baggy-jean-in-harmony/dp/AGOF-MJ9/?d=Mens&amp;page=1&amp;lc=36&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_37</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ63_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 346.33</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-dobbin/dp/FAMF-MJ63/?d=Mens&amp;page=1&amp;lc=37&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_38</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MJ20_V1.jpg</t>
@@ -482,52 +590,28 @@
     <t>Chitch Skinny Jean</t>
   </si>
   <si>
-    <t>CA$ 271.56</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/ksubi-chitch-skinny-jean-in-pure-dynamite/dp/KSUF-MJ20/?d=Mens&amp;page=1&amp;lc=30&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_31</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/JLON-MJ8_V1.jpg</t>
-  </si>
-  <si>
-    <t>Lazy Willy Denim Jeans</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/jaded-london-lazy-willy-denim-jeans-in-black/dp/JLON-MJ8/?d=Mens&amp;page=1&amp;lc=31&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_32</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NEUW-MJ61_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 597.33</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/neuw-lou-slim-jeans-in-fazer/dp/NEUW-MJ61/?d=Mens&amp;page=1&amp;lc=32&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_33</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MJ378_V1.jpg</t>
-  </si>
-  <si>
-    <t>Tuff Tony Jeans</t>
-  </si>
-  <si>
-    <t>CA$ 309.58</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-tuff-tony-jeans-in-signs-of-life/dp/NUDI-MJ378/?d=Mens&amp;page=1&amp;lc=33&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_34</t>
+    <t>https://www.revolve.com/ksubi-chitch-skinny-jean-in-pure-dynamite/dp/KSUF-MJ20/?d=Mens&amp;page=1&amp;lc=38&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_39</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MJ1_V1.jpg</t>
+  </si>
+  <si>
+    <t>Pleasures</t>
+  </si>
+  <si>
+    <t>Impact Pinstripe Denim Jean</t>
+  </si>
+  <si>
+    <t>CA$ 711.71</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/pleasures-impact-pinstripe-denim-jean-in-blue/dp/PLSU-MJ1/?d=Mens&amp;page=1&amp;lc=39&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_40</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ15_V1.jpg</t>
@@ -536,85 +620,10 @@
     <t>Jagger Skinny Jeans</t>
   </si>
   <si>
-    <t>https://www.revolve.com/frame-jagger-skinny-jeans-in-black/dp/FAMF-MJ15/?d=Mens&amp;page=1&amp;lc=34&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_35</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ12_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 393.99</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-curtis-jean-in-crushed/dp/AGOF-MJ12/?d=Mens&amp;page=1&amp;lc=35&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_36</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SEDF-MJ1_V1.jpg</t>
-  </si>
-  <si>
-    <t>SIEDRES</t>
-  </si>
-  <si>
-    <t>Straight Patchwork Jean</t>
-  </si>
-  <si>
-    <t>CA$ 346.33</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/siedres-straight-patchwork-jean-in-multi/dp/SEDF-MJ1/?d=Mens&amp;page=1&amp;lc=36&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_37</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ61_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 711.71</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-blue-hills/dp/FAMF-MJ61/?d=Mens&amp;page=1&amp;lc=37&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_38</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS243_V1.jpg</t>
-  </si>
-  <si>
-    <t>Roy Gitarr T-Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 333.62</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-roy-gitarr-tshirt-in-off-white/dp/NUDI-MS243/?d=Mens&amp;page=1&amp;lc=38&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_39</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ9_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-low-slung-baggy-jean-in-harmony/dp/AGOF-MJ9/?d=Mens&amp;page=1&amp;lc=39&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_40</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ3_V1.jpg</t>
-  </si>
-  <si>
-    <t>90s Jean</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-90s-jean-in-tar/dp/AGOF-MJ3/?d=Mens&amp;page=1&amp;lc=40&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712088385791&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>CA$ 139.31</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/frame-jagger-skinny-jeans-in-black/dp/FAMF-MJ15/?d=Mens&amp;page=1&amp;lc=40&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -979,424 +988,424 @@
         <v>88</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s" s="0">
         <v>183</v>
@@ -1433,56 +1442,56 @@
         <v>190</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s" s="0">
         <v>191</v>
       </c>
       <c r="E39" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="F39" t="s" s="0">
         <v>192</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>193</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="C40" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C40" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="D40" t="s" s="0">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menRevolveJeans.xlsx
+++ b/src/main/resources/menRevolveJeans.xlsx
@@ -185,13 +185,127 @@
     <t>Van Winkle</t>
   </si>
   <si>
+    <t>CA$ 950.01</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/ksubi-van-winkle-in-black-dynamite/dp/KSUF-MJ44/?d=Mens&amp;page=1&amp;lc=9&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_10</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-MJ395_V1.jpg</t>
+  </si>
+  <si>
+    <t>Citizens of Humanity</t>
+  </si>
+  <si>
+    <t>Hayden Baggy</t>
+  </si>
+  <si>
+    <t>CA$ 445.58</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/citizens-of-humanity-hayden-baggy-in-joji/dp/CITI-MJ395/?d=Mens&amp;page=1&amp;lc=10&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_11</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/JOHF-MJ56_V1.jpg</t>
+  </si>
+  <si>
+    <t>JOHN ELLIOTT</t>
+  </si>
+  <si>
+    <t>Caribou Bootcut Hornet</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/john-elliott-caribou-bootcut-hornet-in-hornet/dp/JOHF-MJ56/?d=Mens&amp;page=1&amp;lc=11&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_12</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MO54_V1.jpg</t>
+  </si>
+  <si>
+    <t>Howie Waxed Chore Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 284.37</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-howie-waxed-chore-jacket-in-brown/dp/NUDI-MO54/?d=Mens&amp;page=1&amp;lc=12&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_13</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/JLON-MJ6_V1.jpg</t>
+  </si>
+  <si>
+    <t>Slub Straight Fit Jean</t>
+  </si>
+  <si>
+    <t>CA$ 190.64</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/jaded-london-slub-straight-fit-jean-in-mid-blue/dp/JLON-MJ6/?d=Mens&amp;page=1&amp;lc=13&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_14</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NEUW-MJ60_V1.jpg</t>
+  </si>
+  <si>
+    <t>NEUW</t>
+  </si>
+  <si>
+    <t>Lou Slim Jeans</t>
+  </si>
+  <si>
+    <t>CA$ 362.21</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/neuw-lou-slim-jeans-in-twill/dp/NEUW-MJ60/?d=Mens&amp;page=1&amp;lc=14&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_15</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/JLON-MJ4_V1.jpg</t>
+  </si>
+  <si>
+    <t>Wing Print Studded Lowrise Colossus Jeans</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/jaded-london-wing-print-studded-lowrise-colossus-jeans-in-blue/dp/JLON-MJ4/?d=Mens&amp;page=1&amp;lc=15&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_16</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ64_V1.jpg</t>
+  </si>
+  <si>
     <t>CA$ 187.46</t>
   </si>
   <si>
-    <t>https://www.revolve.com/ksubi-van-winkle-in-black-dynamite/dp/KSUF-MJ44/?d=Mens&amp;page=1&amp;lc=9&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_10</t>
+    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-smoke-beige/dp/FAMF-MJ64/?d=Mens&amp;page=1&amp;lc=16&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_17</t>
+  </si>
+  <si>
+    <t>CA$ 121.66</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-smoke-beige/dp/FAMF-MJ64/?d=Mens&amp;page=1&amp;lc=17&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_18</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-MJ18_V1.jpg</t>
@@ -203,223 +317,112 @@
     <t>501 93 Straight Jean</t>
   </si>
   <si>
-    <t>CA$ 950.01</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-501-93-straight-jean-in-if-only/dp/LEIV-MJ18/?d=Mens&amp;page=1&amp;lc=10&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_11</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-MJ395_V1.jpg</t>
-  </si>
-  <si>
-    <t>Citizens of Humanity</t>
-  </si>
-  <si>
-    <t>Hayden Baggy</t>
-  </si>
-  <si>
-    <t>CA$ 445.58</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/citizens-of-humanity-hayden-baggy-in-joji/dp/CITI-MJ395/?d=Mens&amp;page=1&amp;lc=11&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_12</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/JOHF-MJ56_V1.jpg</t>
-  </si>
-  <si>
-    <t>JOHN ELLIOTT</t>
-  </si>
-  <si>
-    <t>Caribou Bootcut Hornet</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/john-elliott-caribou-bootcut-hornet-in-hornet/dp/JOHF-MJ56/?d=Mens&amp;page=1&amp;lc=12&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_13</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MO54_V1.jpg</t>
-  </si>
-  <si>
-    <t>Howie Waxed Chore Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 284.37</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-howie-waxed-chore-jacket-in-brown/dp/NUDI-MO54/?d=Mens&amp;page=1&amp;lc=13&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_14</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/JLON-MJ6_V1.jpg</t>
-  </si>
-  <si>
-    <t>Slub Straight Fit Jean</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/jaded-london-slub-straight-fit-jean-in-mid-blue/dp/JLON-MJ6/?d=Mens&amp;page=1&amp;lc=14&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_15</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NEUW-MJ60_V1.jpg</t>
-  </si>
-  <si>
-    <t>NEUW</t>
-  </si>
-  <si>
-    <t>Lou Slim Jeans</t>
-  </si>
-  <si>
-    <t>CA$ 362.21</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/neuw-lou-slim-jeans-in-twill/dp/NEUW-MJ60/?d=Mens&amp;page=1&amp;lc=15&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_16</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ1_V1.jpg</t>
-  </si>
-  <si>
-    <t>Low Slung Baggy Pant</t>
+    <t>CA$ 204.94</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/levis-501-93-straight-jean-in-if-only/dp/LEIV-MJ18/?d=Mens&amp;page=1&amp;lc=18&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS246_V1.jpg</t>
+  </si>
+  <si>
+    <t>Leif Mud Stripe T-Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 151.70</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-leif-mud-stripe-tshirt-in-multi/dp/NUDI-MS246/?d=Mens&amp;page=1&amp;lc=19&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ROLS-MJ51_V1.jpg</t>
+  </si>
+  <si>
+    <t>ROLLA'S</t>
+  </si>
+  <si>
+    <t>Relaxo Comfort Jeans</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/rollas-relaxo-comfort-jeans-in-bleached-indigo/dp/ROLS-MJ51/?d=Mens&amp;page=1&amp;lc=20&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-MJ15_V1.jpg</t>
+  </si>
+  <si>
+    <t>501 Original Jean</t>
+  </si>
+  <si>
+    <t>CA$ 288.40</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/levis-501-original-jean-in-motion-sickness-gd/dp/LEIV-MJ15/?d=Mens&amp;page=1&amp;lc=21&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FNEU-MJ5_V1.jpg</t>
+  </si>
+  <si>
+    <t>FLANEUR</t>
+  </si>
+  <si>
+    <t>Carpenter Straight Jeans</t>
   </si>
   <si>
     <t>CA$ 309.79</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-low-slung-baggy-pant-in-libertine/dp/AGOF-MJ1/?d=Mens&amp;page=1&amp;lc=16&amp;plpSrc=%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_17</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ64_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 121.66</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-smoke-beige/dp/FAMF-MJ64/?d=Mens&amp;page=1&amp;lc=17&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_18</t>
+    <t>https://www.revolve.com/flaneur-carpenter-straight-jeans-in-brown-denim/dp/FNEU-MJ5/?d=Mens&amp;page=1&amp;lc=22&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ7_V1.jpg</t>
+  </si>
+  <si>
+    <t>90's Jean</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-90s-jean-in-snapshot/dp/AGOF-MJ7/?d=Mens&amp;page=1&amp;lc=23&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS245_V1.jpg</t>
+  </si>
+  <si>
+    <t>Arvid Waves Hawaii Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 323.16</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-arvid-waves-hawaii-shirt-in-ecru/dp/NUDI-MS245/?d=Mens&amp;page=1&amp;lc=24&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_25</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MJ1_V1.jpg</t>
   </si>
   <si>
-    <t>https://www.revolve.com/ksubi-van-winkle-in-black-rebel/dp/KSUF-MJ1/?d=Mens&amp;page=1&amp;lc=18&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_19</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS246_V1.jpg</t>
-  </si>
-  <si>
-    <t>Leif Mud Stripe T-Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 204.94</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-leif-mud-stripe-tshirt-in-multi/dp/NUDI-MS246/?d=Mens&amp;page=1&amp;lc=19&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_20</t>
-  </si>
-  <si>
-    <t>CA$ 151.70</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-low-slung-baggy-pant-in-libertine/dp/AGOF-MJ1/?d=Mens&amp;page=1&amp;lc=20&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_21</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ROLS-MJ51_V1.jpg</t>
-  </si>
-  <si>
-    <t>ROLLA'S</t>
-  </si>
-  <si>
-    <t>Relaxo Comfort Jeans</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/rollas-relaxo-comfort-jeans-in-bleached-indigo/dp/ROLS-MJ51/?d=Mens&amp;page=1&amp;lc=21&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_22</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-MJ15_V1.jpg</t>
-  </si>
-  <si>
-    <t>501 Original Jean</t>
-  </si>
-  <si>
-    <t>CA$ 288.40</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-501-original-jean-in-motion-sickness-gd/dp/LEIV-MJ15/?d=Mens&amp;page=1&amp;lc=22&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_23</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ7_V1.jpg</t>
-  </si>
-  <si>
-    <t>90's Jean</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-90s-jean-in-snapshot/dp/AGOF-MJ7/?d=Mens&amp;page=1&amp;lc=23&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_24</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FNEU-MJ5_V1.jpg</t>
-  </si>
-  <si>
-    <t>FLANEUR</t>
-  </si>
-  <si>
-    <t>Carpenter Straight Jeans</t>
-  </si>
-  <si>
-    <t>CA$ 323.16</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/flaneur-carpenter-straight-jeans-in-brown-denim/dp/FNEU-MJ5/?d=Mens&amp;page=1&amp;lc=24&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_25</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS245_V1.jpg</t>
-  </si>
-  <si>
-    <t>Arvid Waves Hawaii Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 190.64</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-arvid-waves-hawaii-shirt-in-ecru/dp/NUDI-MS245/?d=Mens&amp;page=1&amp;lc=25&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>CA$ 341.56</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/ksubi-van-winkle-in-black-rebel/dp/KSUF-MJ1/?d=Mens&amp;page=1&amp;lc=25&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_jeans_26</t>
@@ -431,199 +434,196 @@
     <t>Colossus Jean</t>
   </si>
   <si>
+    <t>https://www.revolve.com/jaded-london-colossus-jean-in-black/dp/JLON-MJ5/?d=Mens&amp;page=1&amp;lc=26&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/DIEF-MJ8_V1.jpg</t>
+  </si>
+  <si>
+    <t>2010 Denim Jean</t>
+  </si>
+  <si>
     <t>CA$ 316.14</t>
   </si>
   <si>
-    <t>https://www.revolve.com/jaded-london-colossus-jean-in-black/dp/JLON-MJ5/?d=Mens&amp;page=1&amp;lc=26&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_27</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/DIEF-MJ8_V1.jpg</t>
-  </si>
-  <si>
-    <t>2010 Denim Jean</t>
+    <t>https://www.revolve.com/diesel-2010-denim-jean-in-blue/dp/DIEF-MJ8/?d=Mens&amp;page=1&amp;lc=27&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_28</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ10_V1.jpg</t>
+  </si>
+  <si>
+    <t>Curtis Jean</t>
   </si>
   <si>
     <t>CA$ 317.73</t>
   </si>
   <si>
-    <t>https://www.revolve.com/diesel-2010-denim-jean-in-blue/dp/DIEF-MJ8/?d=Mens&amp;page=1&amp;lc=27&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_28</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ10_V1.jpg</t>
-  </si>
-  <si>
-    <t>Curtis Jean</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-curtis-jean-in-perimeter/dp/AGOF-MJ10/?d=Mens&amp;page=1&amp;lc=28&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/agolde-curtis-jean-in-perimeter/dp/AGOF-MJ10/?d=Mens&amp;page=1&amp;lc=28&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_jeans_29</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MJ20_V1.jpg</t>
+  </si>
+  <si>
+    <t>Chitch Skinny Jean</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/ksubi-chitch-skinny-jean-in-pure-dynamite/dp/KSUF-MJ20/?d=Mens&amp;page=1&amp;lc=29&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_30</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/JLON-MJ8_V1.jpg</t>
   </si>
   <si>
     <t>Lazy Willy Denim Jeans</t>
   </si>
   <si>
+    <t>CA$ 309.58</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/jaded-london-lazy-willy-denim-jeans-in-black/dp/JLON-MJ8/?d=Mens&amp;page=1&amp;lc=30&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NEUW-MJ61_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/neuw-lou-slim-jeans-in-fazer/dp/NEUW-MJ61/?d=Mens&amp;page=1&amp;lc=31&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_32</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MJ378_V1.jpg</t>
+  </si>
+  <si>
+    <t>Tuff Tony Jeans</t>
+  </si>
+  <si>
+    <t>CA$ 393.99</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-tuff-tony-jeans-in-signs-of-life/dp/NUDI-MJ378/?d=Mens&amp;page=1&amp;lc=32&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_33</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ12_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-curtis-jean-in-crushed/dp/AGOF-MJ12/?d=Mens&amp;page=1&amp;lc=33&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ61_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 271.56</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-blue-hills/dp/FAMF-MJ61/?d=Mens&amp;page=1&amp;lc=34&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS243_V1.jpg</t>
+  </si>
+  <si>
+    <t>Roy Gitarr T-Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 336.74</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-roy-gitarr-tshirt-in-off-white/dp/NUDI-MS243/?d=Mens&amp;page=1&amp;lc=35&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_36</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ9_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 346.33</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-low-slung-baggy-jean-in-harmony/dp/AGOF-MJ9/?d=Mens&amp;page=1&amp;lc=36&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_37</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ63_V1.jpg</t>
+  </si>
+  <si>
     <t>CA$ 597.33</t>
   </si>
   <si>
-    <t>https://www.revolve.com/jaded-london-lazy-willy-denim-jeans-in-black/dp/JLON-MJ8/?d=Mens&amp;page=1&amp;lc=29&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_30</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NEUW-MJ61_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 309.58</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/neuw-lou-slim-jeans-in-fazer/dp/NEUW-MJ61/?d=Mens&amp;page=1&amp;lc=30&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_31</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MJ378_V1.jpg</t>
-  </si>
-  <si>
-    <t>Tuff Tony Jeans</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-tuff-tony-jeans-in-signs-of-life/dp/NUDI-MJ378/?d=Mens&amp;page=1&amp;lc=31&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_32</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ12_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 393.99</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-curtis-jean-in-crushed/dp/AGOF-MJ12/?d=Mens&amp;page=1&amp;lc=32&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_33</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SEDF-MJ1_V1.jpg</t>
-  </si>
-  <si>
-    <t>SIEDRES</t>
-  </si>
-  <si>
-    <t>Straight Patchwork Jean</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/siedres-straight-patchwork-jean-in-multi/dp/SEDF-MJ1/?d=Mens&amp;page=1&amp;lc=33&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_34</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ61_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 341.56</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-blue-hills/dp/FAMF-MJ61/?d=Mens&amp;page=1&amp;lc=34&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_35</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MS243_V1.jpg</t>
-  </si>
-  <si>
-    <t>Roy Gitarr T-Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 271.56</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-roy-gitarr-tshirt-in-off-white/dp/NUDI-MS243/?d=Mens&amp;page=1&amp;lc=35&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_36</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOF-MJ9_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 336.74</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-low-slung-baggy-jean-in-harmony/dp/AGOF-MJ9/?d=Mens&amp;page=1&amp;lc=36&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_37</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ63_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 346.33</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-dobbin/dp/FAMF-MJ63/?d=Mens&amp;page=1&amp;lc=37&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/frame-lhomme-slim-denim-jean-in-dobbin/dp/FAMF-MJ63/?d=Mens&amp;page=1&amp;lc=37&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_jeans_38</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MJ20_V1.jpg</t>
-  </si>
-  <si>
-    <t>Chitch Skinny Jean</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/ksubi-chitch-skinny-jean-in-pure-dynamite/dp/KSUF-MJ20/?d=Mens&amp;page=1&amp;lc=38&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MJ1_V1.jpg</t>
+  </si>
+  <si>
+    <t>Pleasures</t>
+  </si>
+  <si>
+    <t>Impact Pinstripe Denim Jean</t>
+  </si>
+  <si>
+    <t>CA$ 270.21</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/pleasures-impact-pinstripe-denim-jean-in-blue/dp/PLSU-MJ1/?d=Mens&amp;page=1&amp;lc=38&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_jeans_39</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MJ1_V1.jpg</t>
-  </si>
-  <si>
-    <t>Pleasures</t>
-  </si>
-  <si>
-    <t>Impact Pinstripe Denim Jean</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ15_V1.jpg</t>
+  </si>
+  <si>
+    <t>Jagger Skinny Jeans</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/frame-jagger-skinny-jeans-in-black/dp/FAMF-MJ15/?d=Mens&amp;page=1&amp;lc=39&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_jeans_40</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ICER-MJ1_V1.jpg</t>
+  </si>
+  <si>
+    <t>ICECREAM</t>
+  </si>
+  <si>
+    <t>Fountain Jean</t>
   </si>
   <si>
     <t>CA$ 711.71</t>
   </si>
   <si>
-    <t>https://www.revolve.com/pleasures-impact-pinstripe-denim-jean-in-blue/dp/PLSU-MJ1/?d=Mens&amp;page=1&amp;lc=39&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_jeans_40</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MJ15_V1.jpg</t>
-  </si>
-  <si>
-    <t>Jagger Skinny Jeans</t>
-  </si>
-  <si>
-    <t>CA$ 139.31</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/frame-jagger-skinny-jeans-in-black/dp/FAMF-MJ15/?d=Mens&amp;page=1&amp;lc=40&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712104388658&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/icecream-fountain-jean-in-caramel/dp/ICER-MJ1/?d=Mens&amp;page=1&amp;lc=40&amp;plpSrc=%2Fr%2FBrands.jsp%3Furl%3Dhttps%3A%2F%2Fwww.revolve.com%2Fr%2FSearch.jsp%3Fsearch%3DJeans%26d%3DMens%26sortBy%3Dfeatured%26productsPerRow%3D4%26preLoadCategory%3D%26preLoadDesigner%3D%26lazyLang%3Den%26d%3DMens%26lazyCountryCode%3DCA%26lazyCurrency%3DCAD%26_%3D1712154842884&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -908,118 +908,118 @@
         <v>68</v>
       </c>
       <c r="E12" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>69</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="C13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="E13" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="F13" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="E14" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="F14" t="s" s="0">
         <v>79</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="C15" t="s" s="0">
         <v>82</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>32</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>83</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>88</v>
       </c>
       <c r="E16" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>89</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="C17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="F17" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>26</v>
@@ -1028,27 +1028,27 @@
         <v>27</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="E19" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>16</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>102</v>
@@ -1079,136 +1079,136 @@
         <v>108</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>28</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="0">
         <v>140</v>
@@ -1248,27 +1248,27 @@
         <v>148</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s" s="0">
         <v>154</v>
@@ -1282,33 +1282,33 @@
         <v>156</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s" s="0">
         <v>162</v>
@@ -1322,44 +1322,44 @@
         <v>164</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s" s="0">
         <v>170</v>
-      </c>
-      <c r="E34" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>171</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>172</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>173</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>26</v>
@@ -1368,38 +1368,38 @@
         <v>27</v>
       </c>
       <c r="E35" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F35" t="s" s="0">
         <v>174</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>175</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>176</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>177</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>38</v>
       </c>
       <c r="D36" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="E36" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="E36" t="s" s="0">
+      <c r="F36" t="s" s="0">
         <v>179</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>180</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>181</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>182</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>14</v>
@@ -1408,18 +1408,18 @@
         <v>15</v>
       </c>
       <c r="E37" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="F37" t="s" s="0">
         <v>183</v>
-      </c>
-      <c r="F37" t="s" s="0">
-        <v>184</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>185</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>186</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>26</v>
@@ -1428,61 +1428,61 @@
         <v>27</v>
       </c>
       <c r="E38" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F38" t="s" s="0">
         <v>187</v>
-      </c>
-      <c r="F38" t="s" s="0">
-        <v>188</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="C39" t="s" s="0">
         <v>190</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>55</v>
       </c>
       <c r="D39" t="s" s="0">
         <v>191</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s" s="0">
         <v>196</v>
       </c>
       <c r="E40" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s" s="0">
         <v>197</v>
-      </c>
-      <c r="F40" t="s" s="0">
-        <v>198</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="C41" t="s" s="0">
         <v>200</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>26</v>
       </c>
       <c r="D41" t="s" s="0">
         <v>201</v>
